--- a/medicine/Psychotrope/Barolo_(DOC)/Barolo_(DOC).xlsx
+++ b/medicine/Psychotrope/Barolo_(DOC)/Barolo_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le barolo, « roi des vins, vin des rois »[1], est un vin italien du Piémont, dont le nom vient de la commune de Barolo. Le cépage principal de l'appellation est le nebbiolo. 
+Le barolo, « roi des vins, vin des rois », est un vin italien du Piémont, dont le nom vient de la commune de Barolo. Le cépage principal de l'appellation est le nebbiolo. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Type de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les barolos présentent beaucoup de similitudes avec la classification et la vinification des vins de Bourgogne.
 </t>
@@ -543,7 +557,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont normalement issus d'un cépage unique (100 % nebbiolo).
 </t>
@@ -574,7 +590,9 @@
           <t>Appellations communales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les appellations communales sont Barolo (c’est-à-dire barolo issu de la zone d'appellation entourant le village de Barolo), La Morra, Monforte d'Alba, Castiglione Falletto et Serralunga d'Alba, toutes situées dans la province de Coni.
 </t>
@@ -605,7 +623,9 @@
           <t>Crus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les barolos ne sont pas classés en « premier cru » et « grand cru » à la façon bordelaise ou bourguignonne mais la notion de cru est bien présente. À titre d'exemple, deux crus de Monforte d'Alba sont Sori Ginestra et  Bussia.
 </t>
@@ -636,7 +656,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La durée minimale d'élevage est fixée à 24 mois, dont au minimum 18 mois sous bois.
 </t>
@@ -667,10 +689,12 @@
           <t>Production, commercialisation, consommation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est rarement planté au-delà de 250 ou 300 mètres d'altitude sous peine de ne pas mûrir[2]. 
-Le barolo compte 1 200 propriétaires sur 2 100 hectares : beaucoup n'exploitent que de très petites surfaces[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est rarement planté au-delà de 250 ou 300 mètres d'altitude sous peine de ne pas mûrir. 
+Le barolo compte 1 200 propriétaires sur 2 100 hectares : beaucoup n'exploitent que de très petites surfaces.
 Le vin a une grande aptitude au vieillissement. 
 Ce vin se marie bien avec des viandes rouges en sauce, viandes braisées, gibier à poil et avec des plats à base de champignons.
 			Cave de Barolo.
